--- a/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-platform-permission-range.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-platform-permission-range.xlsx
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-04-26</t>
+    <t>2020-05-29</t>
   </si>
   <si>
     <t>hzero</t>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-platform-permission-range.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-platform-permission-range.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="86">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-05-29</t>
+    <t>2020-07-06</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2095,6 +2095,9 @@
   </si>
   <si>
     <t>#rule_id</t>
+  </si>
+  <si>
+    <t>editable_flag</t>
   </si>
   <si>
     <t>hpfm_permission_rel-14</t>
@@ -3312,16 +3315,22 @@
       <c r="G13" t="s" s="52">
         <v>83</v>
       </c>
+      <c r="H13" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F14">
         <f>屏蔽规则!$E$11</f>
       </c>
       <c r="G14">
         <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H14" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-platform-permission-range.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-platform-permission-range.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="90">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-06</t>
+    <t>2020-09-11</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2016,7 +2016,10 @@
     <t>rule_type_code</t>
   </si>
   <si>
-    <t>rule_name</t>
+    <t>rule_name:zh_CN</t>
+  </si>
+  <si>
+    <t>rule_name:en_US</t>
   </si>
   <si>
     <t>description</t>
@@ -2025,51 +2028,57 @@
     <t>sql_value</t>
   </si>
   <si>
+    <t>tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>tenant_id:en_US</t>
+  </si>
+  <si>
+    <t>enabled_flag</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rule-8</t>
+  </si>
+  <si>
+    <t>PREFIX.HZERO_PLATFORM</t>
+  </si>
+  <si>
+    <t>PREFIX</t>
+  </si>
+  <si>
+    <t>平台数据库前缀</t>
+  </si>
+  <si>
+    <t>hzero_platform</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>屏蔽范围</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range</t>
+  </si>
+  <si>
+    <t>*range_id</t>
+  </si>
+  <si>
+    <t>custom_rule_flag</t>
+  </si>
+  <si>
+    <t>#table_name</t>
+  </si>
+  <si>
+    <t>#sql_id</t>
+  </si>
+  <si>
     <t>#tenant_id</t>
   </si>
   <si>
-    <t>enabled_flag</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rule-8</t>
-  </si>
-  <si>
-    <t>PREFIX.HZERO_PLATFORM</t>
-  </si>
-  <si>
-    <t>PREFIX</t>
-  </si>
-  <si>
-    <t>平台数据库前缀</t>
-  </si>
-  <si>
-    <t>hzero_platform</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>屏蔽范围</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range</t>
-  </si>
-  <si>
-    <t>*range_id</t>
-  </si>
-  <si>
-    <t>custom_rule_flag</t>
-  </si>
-  <si>
-    <t>#table_name</t>
-  </si>
-  <si>
-    <t>#sql_id</t>
-  </si>
-  <si>
     <t>#service_name</t>
   </si>
   <si>
@@ -2098,6 +2107,9 @@
   </si>
   <si>
     <t>editable_flag</t>
+  </si>
+  <si>
+    <t>tenant_id</t>
   </si>
   <si>
     <t>hpfm_permission_rel-14</t>
@@ -2108,7 +2120,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2270,6 +2282,11 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2470,7 +2487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2558,6 +2575,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3143,7 +3161,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3205,34 +3223,46 @@
       <c r="J7" t="s">
         <v>59</v>
       </c>
-      <c r="K7" t="s" s="42">
+      <c r="K7" t="s">
         <v>60</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" t="s" s="42">
         <v>61</v>
+      </c>
+      <c r="M7" t="s" s="43">
+        <v>62</v>
+      </c>
+      <c r="N7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="I8" t="s">
+        <v>67</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L8" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="M8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -3243,54 +3273,54 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" t="s" s="43">
-        <v>70</v>
-      </c>
-      <c r="E10" t="s" s="44">
         <v>71</v>
       </c>
+      <c r="D10" t="s" s="44">
+        <v>72</v>
+      </c>
+      <c r="E10" t="s" s="45">
+        <v>73</v>
+      </c>
       <c r="F10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" t="s" s="45">
-        <v>73</v>
-      </c>
-      <c r="H10" t="s" s="46">
         <v>74</v>
       </c>
+      <c r="G10" t="s" s="46">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s" s="47">
+        <v>76</v>
+      </c>
       <c r="I10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" t="s" s="47">
-        <v>60</v>
-      </c>
-      <c r="K10" t="s" s="48">
-        <v>75</v>
+        <v>59</v>
+      </c>
+      <c r="J10" t="s" s="48">
+        <v>77</v>
+      </c>
+      <c r="K10" t="s" s="49">
+        <v>78</v>
       </c>
       <c r="L10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -3301,27 +3331,30 @@
         <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" t="s" s="49">
-        <v>80</v>
-      </c>
-      <c r="E13" t="s" s="50">
-        <v>81</v>
-      </c>
-      <c r="F13" t="s" s="51">
         <v>82</v>
       </c>
-      <c r="G13" t="s" s="52">
+      <c r="D13" t="s" s="50">
         <v>83</v>
       </c>
+      <c r="E13" t="s" s="51">
+        <v>84</v>
+      </c>
+      <c r="F13" t="s" s="52">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s" s="53">
+        <v>86</v>
+      </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>87</v>
+      </c>
+      <c r="I13" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F14">
         <f>屏蔽规则!$E$11</f>
@@ -3330,7 +3363,10 @@
         <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H14" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I14" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-platform-permission-range.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-platform-permission-range.xlsx
@@ -3,30 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\choerodon-message\src\main\resources\script\db\init-data\hzero_message\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="14220" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="屏蔽规则" r:id="rId5" sheetId="2"/>
+    <sheet name="屏蔽规则" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-09-11</t>
+    <t>2021-02-02</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2028,15 +2028,18 @@
     <t>sql_value</t>
   </si>
   <si>
-    <t>tenant_id:zh_CN</t>
-  </si>
-  <si>
-    <t>tenant_id:en_US</t>
+    <t>#tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>#tenant_id:en_US</t>
   </si>
   <si>
     <t>enabled_flag</t>
   </si>
   <si>
+    <t>last_updated_by</t>
+  </si>
+  <si>
     <t>hpfm_permission_rule-8</t>
   </si>
   <si>
@@ -2089,6 +2092,9 @@
   </si>
   <si>
     <t>hzero-message</t>
+  </si>
+  <si>
+    <t>-1</t>
   </si>
   <si>
     <t>屏蔽范围规则关系</t>
@@ -2119,7 +2125,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="40">
     <font>
       <sz val="12"/>
@@ -2239,114 +2244,136 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2539,6 +2566,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2554,28 +2603,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2922,56 +2949,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.08203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.08203125" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:8">
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="49"/>
+      <c r="E3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
     </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="30" t="s">
+    <row r="4" spans="1:8">
+      <c r="C4" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -2988,7 +3015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
+    <row r="7" spans="1:8">
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -3008,7 +3035,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="51.75">
+    <row r="9" spans="1:8" ht="52.2">
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
@@ -3022,7 +3049,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
+    <row r="10" spans="1:8" ht="52.2">
       <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
@@ -3033,7 +3060,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
+    <row r="11" spans="1:8" ht="69.599999999999994">
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
@@ -3065,7 +3092,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="34.5">
+    <row r="15" spans="1:8" ht="34.799999999999997">
       <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
@@ -3082,13 +3109,13 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
     </row>
-    <row r="20" spans="3:5" ht="18">
+    <row r="20" spans="3:5">
       <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
@@ -3096,7 +3123,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
+    <row r="21" spans="3:5">
       <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
@@ -3104,7 +3131,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
+    <row r="22" spans="3:5">
       <c r="C22" s="24" t="s">
         <v>35</v>
       </c>
@@ -3112,7 +3139,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
+    <row r="23" spans="3:5">
       <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
@@ -3124,21 +3151,21 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="49"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27"/>
+      <c r="E26" s="49"/>
     </row>
-    <row r="27" spans="3:5" ht="51.75">
+    <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
@@ -3160,39 +3187,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="32">
+    <row r="1" spans="1:15">
+      <c r="A1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="33">
+      <c r="B1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="34">
+      <c r="C1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="35">
+      <c r="D1" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="36">
+    <row r="4" spans="1:15">
+      <c r="E4" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="37">
+      <c r="F4" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="38">
+      <c r="G4" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3202,13 +3231,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="39">
+      <c r="D7" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="40">
+      <c r="E7" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="41">
+      <c r="F7" s="36" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -3226,46 +3255,52 @@
       <c r="K7" t="s">
         <v>60</v>
       </c>
-      <c r="L7" t="s" s="42">
+      <c r="L7" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="M7" t="s" s="43">
+      <c r="M7" s="38" t="s">
         <v>62</v>
       </c>
       <c r="N7" t="s">
         <v>63</v>
       </c>
+      <c r="O7" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N8" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="O8" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -3273,57 +3308,63 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" t="s" s="44">
         <v>72</v>
       </c>
-      <c r="E10" t="s" s="45">
+      <c r="D10" s="39" t="s">
         <v>73</v>
       </c>
+      <c r="E10" s="40" t="s">
+        <v>74</v>
+      </c>
       <c r="F10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" t="s" s="46">
         <v>75</v>
       </c>
-      <c r="H10" t="s" s="47">
+      <c r="G10" s="41" t="s">
         <v>76</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>77</v>
       </c>
       <c r="I10" t="s">
         <v>59</v>
       </c>
-      <c r="J10" t="s" s="48">
-        <v>77</v>
-      </c>
-      <c r="K10" t="s" s="49">
+      <c r="J10" s="43" t="s">
         <v>78</v>
+      </c>
+      <c r="K10" s="44" t="s">
+        <v>79</v>
       </c>
       <c r="L10" t="s">
         <v>63</v>
       </c>
+      <c r="M10" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L11" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="M11" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -3331,45 +3372,55 @@
         <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" t="s" s="50">
+        <v>84</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="E14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" t="str">
+        <f>屏蔽规则!$E$11</f>
+        <v>hpfm_permission_range-11</v>
+      </c>
+      <c r="G14" t="str">
+        <f>屏蔽规则!$E$8</f>
+        <v>hpfm_permission_rule-8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" t="s">
         <v>83</v>
-      </c>
-      <c r="E13" t="s" s="51">
-        <v>84</v>
-      </c>
-      <c r="F13" t="s" s="52">
-        <v>85</v>
-      </c>
-      <c r="G13" t="s" s="53">
-        <v>86</v>
-      </c>
-      <c r="H13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="E14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14">
-        <f>屏蔽规则!$E$11</f>
-      </c>
-      <c r="G14">
-        <f>屏蔽规则!$E$8</f>
-      </c>
-      <c r="H14" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-platform-permission-range.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-platform-permission-range.xlsx
@@ -3,30 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\choerodon-message\src\main\resources\script\db\init-data\hzero_message\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="14220" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="屏蔽规则" sheetId="2" r:id="rId2"/>
+    <sheet name="屏蔽规则" r:id="rId5" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="94">
   <si>
     <r>
       <rPr>
@@ -2037,6 +2037,9 @@
     <t>enabled_flag</t>
   </si>
   <si>
+    <t>last_update_date</t>
+  </si>
+  <si>
     <t>last_updated_by</t>
   </si>
   <si>
@@ -2059,6 +2062,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>now</t>
   </si>
   <si>
     <t>屏蔽范围</t>
@@ -2125,6 +2131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="40">
     <font>
       <sz val="12"/>
@@ -2244,136 +2251,114 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2566,28 +2551,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2603,6 +2566,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2949,56 +2934,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.08203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.08203125" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.08203125" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="18">
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="51" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
-    <row r="4" spans="1:8">
-      <c r="C4" s="52" t="s">
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3015,7 +3000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="18">
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -3035,7 +3020,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="52.2">
+    <row r="9" spans="1:8" ht="51.75">
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
@@ -3049,7 +3034,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
+    <row r="10" spans="1:8" ht="51.75">
       <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
@@ -3060,7 +3045,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
+    <row r="11" spans="1:8" ht="69">
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
@@ -3092,7 +3077,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
+    <row r="15" spans="1:8" ht="34.5">
       <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
@@ -3109,13 +3094,13 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
@@ -3123,7 +3108,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" ht="18">
       <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
@@ -3131,7 +3116,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" ht="18">
       <c r="C22" s="24" t="s">
         <v>35</v>
       </c>
@@ -3139,7 +3124,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" ht="18">
       <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
@@ -3151,21 +3136,21 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="49"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="49"/>
+      <c r="E26" s="27"/>
     </row>
-    <row r="27" spans="3:5" ht="52.2">
+    <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
@@ -3187,41 +3172,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="27" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="32">
         <v>44</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" t="s" s="33">
         <v>45</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" t="s" s="34">
         <v>9</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" t="s" s="35">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="E4" s="31" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="36">
         <v>47</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" t="s" s="37">
         <v>48</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" t="s" s="38">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3231,13 +3214,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" t="s" s="39">
         <v>53</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" t="s" s="40">
         <v>54</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" t="s" s="41">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -3255,10 +3238,10 @@
       <c r="K7" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="37" t="s">
+      <c r="L7" t="s" s="42">
         <v>61</v>
       </c>
-      <c r="M7" s="38" t="s">
+      <c r="M7" t="s" s="43">
         <v>62</v>
       </c>
       <c r="N7" t="s">
@@ -3267,40 +3250,46 @@
       <c r="O7" t="s">
         <v>64</v>
       </c>
+      <c r="P7" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8">
       <c r="E8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O8" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="P8" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -3308,31 +3297,31 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="40" t="s">
         <v>74</v>
       </c>
+      <c r="D10" t="s" s="44">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s" s="45">
+        <v>76</v>
+      </c>
       <c r="F10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="42" t="s">
         <v>77</v>
+      </c>
+      <c r="G10" t="s" s="46">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s" s="47">
+        <v>79</v>
       </c>
       <c r="I10" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="K10" s="44" t="s">
-        <v>79</v>
+      <c r="J10" t="s" s="48">
+        <v>80</v>
+      </c>
+      <c r="K10" t="s" s="49">
+        <v>81</v>
       </c>
       <c r="L10" t="s">
         <v>63</v>
@@ -3340,31 +3329,37 @@
       <c r="M10" t="s">
         <v>64</v>
       </c>
+      <c r="N10" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11">
       <c r="E11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M11" t="s">
-        <v>83</v>
+        <v>73</v>
+      </c>
+      <c r="N11" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -3372,55 +3367,57 @@
         <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="D13" t="s" s="50">
         <v>87</v>
       </c>
-      <c r="G13" s="48" t="s">
+      <c r="E13" t="s" s="51">
         <v>88</v>
       </c>
+      <c r="F13" t="s" s="52">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s" s="53">
+        <v>90</v>
+      </c>
       <c r="H13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s">
         <v>64</v>
       </c>
+      <c r="K13" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14">
       <c r="E14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" t="str">
+        <v>93</v>
+      </c>
+      <c r="F14">
         <f>屏蔽规则!$E$11</f>
-        <v>hpfm_permission_range-11</v>
-      </c>
-      <c r="G14" t="str">
+      </c>
+      <c r="G14">
         <f>屏蔽规则!$E$8</f>
-        <v>hpfm_permission_rule-8</v>
       </c>
       <c r="H14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" t="s">
         <v>71</v>
       </c>
-      <c r="I14" t="s">
-        <v>70</v>
-      </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>73</v>
+      </c>
+      <c r="K14" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-platform-permission-range.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-platform-permission-range.xlsx
@@ -21,12 +21,12 @@
     <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
     <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="95">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2021-02-02</t>
+    <t>2021-10-13</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2067,6 +2067,9 @@
     <t>now</t>
   </si>
   <si>
+    <t>32789</t>
+  </si>
+  <si>
     <t>屏蔽范围</t>
   </si>
   <si>
@@ -2100,7 +2103,7 @@
     <t>hzero-message</t>
   </si>
   <si>
-    <t>-1</t>
+    <t>468</t>
   </si>
   <si>
     <t>屏蔽范围规则关系</t>
@@ -3286,7 +3289,7 @@
         <v>73</v>
       </c>
       <c r="P8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -3297,31 +3300,31 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s" s="44">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s" s="45">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="46">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="47">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s">
         <v>59</v>
       </c>
       <c r="J10" t="s" s="48">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s" s="49">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L10" t="s">
         <v>63</v>
@@ -3335,19 +3338,19 @@
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F11" t="s">
         <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J11" t="s">
         <v>71</v>
       </c>
       <c r="K11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L11" t="s">
         <v>72</v>
@@ -3356,7 +3359,7 @@
         <v>73</v>
       </c>
       <c r="N11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
@@ -3367,25 +3370,25 @@
         <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s" s="50">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s" s="51">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" t="s" s="52">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" t="s" s="53">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J13" t="s">
         <v>64</v>
@@ -3396,13 +3399,15 @@
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14">
+        <v>94</v>
+      </c>
+      <c r="F14" t="n">
         <f>屏蔽规则!$E$11</f>
-      </c>
-      <c r="G14">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n">
         <f>屏蔽规则!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="H14" t="s">
         <v>72</v>
@@ -3414,7 +3419,7 @@
         <v>73</v>
       </c>
       <c r="K14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
